--- a/scripts/data_summary/vesicle_training_data.xlsx
+++ b/scripts/data_summary/vesicle_training_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F305"/>
+  <dimension ref="A1:F338"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4030,397 +4030,397 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>tomogram-000.h5</t>
+          <t>tomogram-009.h5</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Dual-Axis TEM</t>
+          <t>Single-Axis TEM</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>1.2</v>
+        <v>1.554</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>train/val</t>
+          <t>test</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>476</v>
+        <v>148</v>
       </c>
       <c r="F139" t="n">
-        <v>374</v>
+        <v>119</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>tomogram-001.h5</t>
+          <t>tomogram-038.h5</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Dual-Axis TEM</t>
+          <t>Single-Axis TEM</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>1.2</v>
+        <v>1.554</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>train/val</t>
+          <t>test</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>39</v>
+        <v>219</v>
       </c>
       <c r="F140" t="n">
-        <v>31</v>
+        <v>154</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>tomogram-002.h5</t>
+          <t>tomogram-049.h5</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Dual-Axis TEM</t>
+          <t>Single-Axis TEM</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>1.2</v>
+        <v>1.554</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>train/val</t>
+          <t>test</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>197</v>
+        <v>264</v>
       </c>
       <c r="F141" t="n">
-        <v>170</v>
+        <v>204</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>tomogram-003.h5</t>
+          <t>tomogram-052.h5</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Dual-Axis TEM</t>
+          <t>Single-Axis TEM</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>1.2</v>
+        <v>1.554</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>train/val</t>
+          <t>test</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>296</v>
+        <v>337</v>
       </c>
       <c r="F142" t="n">
-        <v>286</v>
+        <v>270</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>tomogram-005.h5</t>
+          <t>tomogram-057.h5</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Dual-Axis TEM</t>
+          <t>Single-Axis TEM</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>1.2</v>
+        <v>1.554</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>train/val</t>
+          <t>test</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>525</v>
+        <v>222</v>
       </c>
       <c r="F143" t="n">
-        <v>468</v>
+        <v>159</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>tomogram-006.h5</t>
+          <t>tomogram-060.h5</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Dual-Axis TEM</t>
+          <t>Single-Axis TEM</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>1.2</v>
+        <v>1.554</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>train/val</t>
+          <t>test</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>460</v>
+        <v>174</v>
       </c>
       <c r="F144" t="n">
-        <v>431</v>
+        <v>144</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>tomogram-007.h5</t>
+          <t>tomogram-067.h5</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Dual-Axis TEM</t>
+          <t>Single-Axis TEM</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>1.2</v>
+        <v>1.554</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>train/val</t>
+          <t>test</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="F145" t="n">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>tomogram-009.h5</t>
+          <t>tomogram-074.h5</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Dual-Axis TEM</t>
+          <t>Single-Axis TEM</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>1.2</v>
+        <v>1.554</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>train/val</t>
+          <t>test</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>116</v>
+        <v>224</v>
       </c>
       <c r="F146" t="n">
-        <v>107</v>
+        <v>192</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>tomogram-000.h5</t>
+          <t>tomogram-076.h5</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Dual-Axis TEM</t>
+          <t>Single-Axis TEM</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>1.24</v>
+        <v>1.554</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>train/val</t>
+          <t>test</t>
         </is>
       </c>
       <c r="E147" t="n">
-        <v>385</v>
+        <v>181</v>
       </c>
       <c r="F147" t="n">
-        <v>141</v>
+        <v>150</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>tomogram-001.h5</t>
+          <t>tomogram-083.h5</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Dual-Axis TEM</t>
+          <t>Single-Axis TEM</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>1.24</v>
+        <v>1.554</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>train/val</t>
+          <t>test</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>381</v>
+        <v>191</v>
       </c>
       <c r="F148" t="n">
-        <v>144</v>
+        <v>157</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>tomogram-002.h5</t>
+          <t>tomogram-133.h5</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Dual-Axis TEM</t>
+          <t>Single-Axis TEM</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>1.24</v>
+        <v>1.554</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>train/val</t>
+          <t>test</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>439</v>
+        <v>141</v>
       </c>
       <c r="F149" t="n">
-        <v>168</v>
+        <v>115</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>tomogram-005.h5</t>
+          <t>tomogram-136.h5</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Dual-Axis TEM</t>
+          <t>Single-Axis TEM</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>1.24</v>
+        <v>1.554</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>train/val</t>
+          <t>test</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>145</v>
+        <v>221</v>
       </c>
       <c r="F150" t="n">
-        <v>43</v>
+        <v>170</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>tomogram-006.h5</t>
+          <t>tomogram-145.h5</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Dual-Axis TEM</t>
+          <t>Single-Axis TEM</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>1.24</v>
+        <v>1.554</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>train/val</t>
+          <t>test</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>447</v>
+        <v>212</v>
       </c>
       <c r="F151" t="n">
-        <v>173</v>
+        <v>185</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>tomogram-007.h5</t>
+          <t>tomogram-149.h5</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Dual-Axis TEM</t>
+          <t>Single-Axis TEM</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>1.24</v>
+        <v>1.554</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>train/val</t>
+          <t>test</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>533</v>
+        <v>200</v>
       </c>
       <c r="F152" t="n">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>tomogram-009.h5</t>
+          <t>tomogram-150.h5</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Dual-Axis TEM</t>
+          <t>Single-Axis TEM</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>1.24</v>
+        <v>1.554</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>train/val</t>
+          <t>test</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>392</v>
+        <v>175</v>
       </c>
       <c r="F153" t="n">
-        <v>167</v>
+        <v>138</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>tomogram-010.h5</t>
+          <t>tomogram-000.h5</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -4429,7 +4429,7 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -4437,16 +4437,16 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>582</v>
+        <v>476</v>
       </c>
       <c r="F154" t="n">
-        <v>185</v>
+        <v>374</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>tomogram-011.h5</t>
+          <t>tomogram-001.h5</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -4455,7 +4455,7 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -4463,16 +4463,16 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>273</v>
+        <v>39</v>
       </c>
       <c r="F155" t="n">
-        <v>93</v>
+        <v>31</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>tomogram-012.h5</t>
+          <t>tomogram-002.h5</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -4481,7 +4481,7 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -4489,16 +4489,16 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>417</v>
+        <v>197</v>
       </c>
       <c r="F156" t="n">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>tomogram-013.h5</t>
+          <t>tomogram-003.h5</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -4507,7 +4507,7 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -4515,16 +4515,16 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>392</v>
+        <v>296</v>
       </c>
       <c r="F157" t="n">
-        <v>128</v>
+        <v>286</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>tomogram-014.h5</t>
+          <t>tomogram-005.h5</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -4533,7 +4533,7 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>298</v>
+        <v>525</v>
       </c>
       <c r="F158" t="n">
-        <v>89</v>
+        <v>468</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>tomogram-015.h5</t>
+          <t>tomogram-006.h5</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -4559,7 +4559,7 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -4567,16 +4567,16 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="F159" t="n">
-        <v>158</v>
+        <v>431</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>tomogram-016.h5</t>
+          <t>tomogram-007.h5</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -4585,7 +4585,7 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -4593,16 +4593,16 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F160" t="n">
-        <v>97</v>
+        <v>158</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>tomogram-017.h5</t>
+          <t>tomogram-009.h5</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -4611,7 +4611,7 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -4619,16 +4619,16 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="F161" t="n">
-        <v>54</v>
+        <v>107</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>tomogram-018.h5</t>
+          <t>tomogram-004.h5</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -4637,24 +4637,24 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>train/val</t>
+          <t>test</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>405</v>
+        <v>388</v>
       </c>
       <c r="F162" t="n">
-        <v>116</v>
+        <v>338</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>tomogram-019.h5</t>
+          <t>tomogram-008.h5</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -4663,24 +4663,24 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>train/val</t>
+          <t>test</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>356</v>
+        <v>310</v>
       </c>
       <c r="F163" t="n">
-        <v>92</v>
+        <v>278</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>tomogram-020.h5</t>
+          <t>tomogram-000.h5</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -4697,16 +4697,16 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>289</v>
+        <v>385</v>
       </c>
       <c r="F164" t="n">
-        <v>97</v>
+        <v>141</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>tomogram-021.h5</t>
+          <t>tomogram-001.h5</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -4723,16 +4723,16 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="F165" t="n">
-        <v>111</v>
+        <v>144</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>tomogram-022.h5</t>
+          <t>tomogram-002.h5</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -4749,16 +4749,16 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>173</v>
+        <v>439</v>
       </c>
       <c r="F166" t="n">
-        <v>79</v>
+        <v>168</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>tomogram-023.h5</t>
+          <t>tomogram-005.h5</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -4775,467 +4775,467 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>219</v>
+        <v>145</v>
       </c>
       <c r="F167" t="n">
-        <v>103</v>
+        <v>43</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>36859_J1_66K_TS_CA3_MF_18_rec_2Kb1dawbp_crop.h5</t>
+          <t>tomogram-006.h5</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>STEM</t>
+          <t>Dual-Axis TEM</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>0.868</v>
+        <v>1.24</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>train/val</t>
         </is>
       </c>
       <c r="E168" t="n">
-        <v>6641</v>
+        <v>447</v>
       </c>
       <c r="F168" t="n">
-        <v>6641</v>
+        <v>173</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>36859_J1_66K_TS_CA3_MF_19_rec_2Kb1dawbp_crop.h5</t>
+          <t>tomogram-007.h5</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>STEM</t>
+          <t>Dual-Axis TEM</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>0.868</v>
+        <v>1.24</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>train/val</t>
         </is>
       </c>
       <c r="E169" t="n">
-        <v>7281</v>
+        <v>533</v>
       </c>
       <c r="F169" t="n">
-        <v>7281</v>
+        <v>183</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>36859_J2_66K_TS_R04_MF03_rec_2Kb1dawbp_crop.h5</t>
+          <t>tomogram-009.h5</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>STEM</t>
+          <t>Dual-Axis TEM</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>0.868</v>
+        <v>1.24</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>train/val</t>
         </is>
       </c>
       <c r="E170" t="n">
-        <v>4914</v>
+        <v>392</v>
       </c>
       <c r="F170" t="n">
-        <v>4914</v>
+        <v>167</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>36859_J2_66K_TS_R04_MF06_rec_2Kb1dawbp_crop.h5</t>
+          <t>tomogram-010.h5</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>STEM</t>
+          <t>Dual-Axis TEM</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>0.868</v>
+        <v>1.24</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>train/val</t>
         </is>
       </c>
       <c r="E171" t="n">
-        <v>3857</v>
+        <v>582</v>
       </c>
       <c r="F171" t="n">
-        <v>3857</v>
+        <v>185</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>36194_Q4_66K_TS_CA1_PS_29_rec_2Kb1dawbp_crop.h5</t>
+          <t>tomogram-011.h5</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>STEM</t>
+          <t>Dual-Axis TEM</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>0.868</v>
+        <v>1.24</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>train/val</t>
         </is>
       </c>
       <c r="E172" t="n">
-        <v>914</v>
+        <v>273</v>
       </c>
       <c r="F172" t="n">
-        <v>914</v>
+        <v>93</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>36859_J1_66K_TS_CA3_PS_26_rec_2Kb1dawbp_crop.h5</t>
+          <t>tomogram-012.h5</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>STEM</t>
+          <t>Dual-Axis TEM</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>0.868</v>
+        <v>1.24</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>train/val</t>
         </is>
       </c>
       <c r="E173" t="n">
-        <v>1384</v>
+        <v>417</v>
       </c>
       <c r="F173" t="n">
-        <v>1384</v>
+        <v>178</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>36859_J1_66K_TS_CA3_PS_42_rec_2Kb1dawbp_crop.h5</t>
+          <t>tomogram-013.h5</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>STEM</t>
+          <t>Dual-Axis TEM</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>0.868</v>
+        <v>1.24</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>train/val</t>
         </is>
       </c>
       <c r="E174" t="n">
-        <v>1499</v>
+        <v>392</v>
       </c>
       <c r="F174" t="n">
-        <v>1499</v>
+        <v>128</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>36859_J1_66K_TS_CA3_PS_45_rec_2Kb1dawbp_crop.h5</t>
+          <t>tomogram-014.h5</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>STEM</t>
+          <t>Dual-Axis TEM</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>0.868</v>
+        <v>1.24</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>train/val</t>
         </is>
       </c>
       <c r="E175" t="n">
-        <v>386</v>
+        <v>298</v>
       </c>
       <c r="F175" t="n">
-        <v>386</v>
+        <v>89</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>36859_J1_66K_TS_CA3_PS_46_rec_2Kb1dawbp_crop.h5</t>
+          <t>tomogram-015.h5</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>STEM</t>
+          <t>Dual-Axis TEM</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>0.868</v>
+        <v>1.24</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>train/val</t>
         </is>
       </c>
       <c r="E176" t="n">
-        <v>1131</v>
+        <v>475</v>
       </c>
       <c r="F176" t="n">
-        <v>1131</v>
+        <v>158</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>36859_J2_66K_TS_R04_PS11_rec_2Kb1dawbp_crop.h5</t>
+          <t>tomogram-016.h5</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>STEM</t>
+          <t>Dual-Axis TEM</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>0.868</v>
+        <v>1.24</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>train/val</t>
         </is>
       </c>
       <c r="E177" t="n">
-        <v>705</v>
+        <v>185</v>
       </c>
       <c r="F177" t="n">
-        <v>705</v>
+        <v>97</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>36859_J2_66K_TS_R04_PS13_rec_2Kb1dawbp_crop.h5</t>
+          <t>tomogram-017.h5</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>STEM</t>
+          <t>Dual-Axis TEM</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>0.868</v>
+        <v>1.24</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>train/val</t>
         </is>
       </c>
       <c r="E178" t="n">
-        <v>479</v>
+        <v>143</v>
       </c>
       <c r="F178" t="n">
-        <v>479</v>
+        <v>54</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>36859_H2_SP_01_rec_2Kb1dawbp_crop.h5</t>
+          <t>tomogram-018.h5</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>STEM</t>
+          <t>Dual-Axis TEM</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>0.868</v>
+        <v>1.24</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>train/val</t>
         </is>
       </c>
       <c r="E179" t="n">
-        <v>886</v>
+        <v>405</v>
       </c>
       <c r="F179" t="n">
-        <v>886</v>
+        <v>116</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>36859_H2_SP_02_rec_2Kb1dawbp_crop.h5</t>
+          <t>tomogram-019.h5</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>STEM</t>
+          <t>Dual-Axis TEM</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>0.868</v>
+        <v>1.24</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>train/val</t>
         </is>
       </c>
       <c r="E180" t="n">
-        <v>278</v>
+        <v>356</v>
       </c>
       <c r="F180" t="n">
-        <v>278</v>
+        <v>92</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>36859_H2_SP_03_rec_2Kb1dawbp_crop.h5</t>
+          <t>tomogram-020.h5</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>STEM</t>
+          <t>Dual-Axis TEM</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>0.868</v>
+        <v>1.24</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>train/val</t>
         </is>
       </c>
       <c r="E181" t="n">
-        <v>345</v>
+        <v>289</v>
       </c>
       <c r="F181" t="n">
-        <v>345</v>
+        <v>97</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>36859_H2_SP_04_rec_2Kb1dawbp_crop.h5</t>
+          <t>tomogram-021.h5</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>STEM</t>
+          <t>Dual-Axis TEM</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>0.868</v>
+        <v>1.24</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>train/val</t>
         </is>
       </c>
       <c r="E182" t="n">
-        <v>718</v>
+        <v>369</v>
       </c>
       <c r="F182" t="n">
-        <v>718</v>
+        <v>111</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>36859_H2_SP_07_rec_2Kb1dawbp_crop.h5</t>
+          <t>tomogram-022.h5</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>STEM</t>
+          <t>Dual-Axis TEM</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>0.868</v>
+        <v>1.24</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>train/val</t>
         </is>
       </c>
       <c r="E183" t="n">
-        <v>63</v>
+        <v>173</v>
       </c>
       <c r="F183" t="n">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>36859_H2_SP_10_rec_crop.h5</t>
+          <t>tomogram-023.h5</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>STEM</t>
+          <t>Dual-Axis TEM</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>0.868</v>
+        <v>1.24</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>train/val</t>
         </is>
       </c>
       <c r="E184" t="n">
         <v>219</v>
       </c>
       <c r="F184" t="n">
-        <v>219</v>
+        <v>103</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>36859_H2_SP_11_rec_2Kb1dawbp_crop.h5</t>
+          <t>tomogram-003.h5</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>STEM</t>
+          <t>Dual-Axis TEM</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>0.868</v>
+        <v>1.24</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -5243,25 +5243,25 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>1155</v>
+        <v>323</v>
       </c>
       <c r="F185" t="n">
-        <v>1155</v>
+        <v>125</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>36859_H3_SP_01_rec_2kb1dawbp_crop.h5</t>
+          <t>tomogram-004.h5</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>STEM</t>
+          <t>Dual-Axis TEM</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>0.868</v>
+        <v>1.24</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -5269,25 +5269,25 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>244</v>
+        <v>372</v>
       </c>
       <c r="F186" t="n">
-        <v>244</v>
+        <v>144</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>36859_H3_SP_05_rec_2kb1dawbp_crop.h5</t>
+          <t>tomogram-008.h5</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>STEM</t>
+          <t>Dual-Axis TEM</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>0.868</v>
+        <v>1.24</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -5295,16 +5295,16 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>320</v>
+        <v>384</v>
       </c>
       <c r="F187" t="n">
-        <v>320</v>
+        <v>137</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>36859_H3_SP_07_rec_2kb1dawbp_crop.h5</t>
+          <t>36859_J1_66K_TS_CA3_MF_18_rec_2Kb1dawbp_crop.h5</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -5321,16 +5321,16 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>530</v>
+        <v>6641</v>
       </c>
       <c r="F188" t="n">
-        <v>530</v>
+        <v>6641</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>36859_H3_SP_08_rec_2kb1dawbp_crop.h5</t>
+          <t>36859_J1_66K_TS_CA3_MF_19_rec_2Kb1dawbp_crop.h5</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -5347,16 +5347,16 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>113</v>
+        <v>7281</v>
       </c>
       <c r="F189" t="n">
-        <v>113</v>
+        <v>7281</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>36859_H3_SP_09_rec_2kb1dawbp_crop.h5</t>
+          <t>36859_J2_66K_TS_R04_MF03_rec_2Kb1dawbp_crop.h5</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -5373,16 +5373,16 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>134</v>
+        <v>4914</v>
       </c>
       <c r="F190" t="n">
-        <v>134</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>36859_H3_SP_10_rec_2kb1dawbp_crop.h5</t>
+          <t>36859_J2_66K_TS_R04_MF06_rec_2Kb1dawbp_crop.h5</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -5399,16 +5399,16 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>199</v>
+        <v>3857</v>
       </c>
       <c r="F191" t="n">
-        <v>199</v>
+        <v>3857</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>36859_J1_STEM750_66K_SP_01_rec_2kb1dawbp_crop.h5</t>
+          <t>36194_Q4_66K_TS_CA1_PS_29_rec_2Kb1dawbp_crop.h5</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -5425,16 +5425,16 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>87</v>
+        <v>914</v>
       </c>
       <c r="F192" t="n">
-        <v>87</v>
+        <v>914</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>36859_J1_STEM750_66K_SP_02_rec_2kb1dawbp_crop.h5</t>
+          <t>36859_J1_66K_TS_CA3_PS_26_rec_2Kb1dawbp_crop.h5</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -5451,16 +5451,16 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>470</v>
+        <v>1384</v>
       </c>
       <c r="F193" t="n">
-        <v>470</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>36859_J1_STEM750_66K_SP_03_rec_2kb1dawbp_crop.h5</t>
+          <t>36859_J1_66K_TS_CA3_PS_42_rec_2Kb1dawbp_crop.h5</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -5477,16 +5477,16 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>869</v>
+        <v>1499</v>
       </c>
       <c r="F194" t="n">
-        <v>869</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>36859_J1_STEM750_66K_SP_06_rec_2kb1dawbp_crop.h5</t>
+          <t>36859_J1_66K_TS_CA3_PS_45_rec_2Kb1dawbp_crop.h5</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -5503,16 +5503,16 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>224</v>
+        <v>386</v>
       </c>
       <c r="F195" t="n">
-        <v>224</v>
+        <v>386</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>36859_J1_STEM750_66K_SP_07_rec_2kb1dawbp_crop.h5</t>
+          <t>36859_J1_66K_TS_CA3_PS_46_rec_2Kb1dawbp_crop.h5</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -5529,16 +5529,16 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>878</v>
+        <v>1131</v>
       </c>
       <c r="F196" t="n">
-        <v>878</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>36859_J1_STEM750_66K_SP_08_rec_2kb1dawbp_crop.h5</t>
+          <t>36859_J2_66K_TS_R04_PS11_rec_2Kb1dawbp_crop.h5</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -5555,16 +5555,16 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>1353</v>
+        <v>705</v>
       </c>
       <c r="F197" t="n">
-        <v>1353</v>
+        <v>705</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>36859_J1_STEM750_66K_SP_10_rec_2kb1dawbp_crop.h5</t>
+          <t>36859_J2_66K_TS_R04_PS13_rec_2Kb1dawbp_crop.h5</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -5581,16 +5581,16 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>201</v>
+        <v>479</v>
       </c>
       <c r="F198" t="n">
-        <v>201</v>
+        <v>479</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>36859_J1_STEM750_66K_SP_11_rec_2kb1dawbp_crop.h5</t>
+          <t>36859_H2_SP_01_rec_2Kb1dawbp_crop.h5</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -5607,16 +5607,16 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>370</v>
+        <v>886</v>
       </c>
       <c r="F199" t="n">
-        <v>370</v>
+        <v>886</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>36859_J1_STEM750_66K_SP_13_rec_2kb1dawbp_crop.h5</t>
+          <t>36859_H2_SP_02_rec_2Kb1dawbp_crop.h5</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -5633,16 +5633,16 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>482</v>
+        <v>278</v>
       </c>
       <c r="F200" t="n">
-        <v>482</v>
+        <v>278</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>36859_J1_STEM750_66K_SP_14_rec_2kb1dawbp_crop.h5</t>
+          <t>36859_H2_SP_03_rec_2Kb1dawbp_crop.h5</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -5659,16 +5659,16 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="F201" t="n">
-        <v>325</v>
+        <v>345</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>36859_J1_STEM750_66K_SP_17_rec_2kb1dawbp_crop.h5</t>
+          <t>36859_H2_SP_04_rec_2Kb1dawbp_crop.h5</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -5685,16 +5685,16 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>505</v>
+        <v>718</v>
       </c>
       <c r="F202" t="n">
-        <v>505</v>
+        <v>718</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>tomogram-000.h5</t>
+          <t>36859_H2_SP_07_rec_2Kb1dawbp_crop.h5</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -5707,20 +5707,20 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>train/val</t>
+          <t>test</t>
         </is>
       </c>
       <c r="E203" t="n">
-        <v>486</v>
+        <v>63</v>
       </c>
       <c r="F203" t="n">
-        <v>443</v>
+        <v>63</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>tomogram-001.h5</t>
+          <t>36859_H2_SP_10_rec_crop.h5</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -5733,20 +5733,20 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>train/val</t>
+          <t>test</t>
         </is>
       </c>
       <c r="E204" t="n">
-        <v>2014</v>
+        <v>219</v>
       </c>
       <c r="F204" t="n">
-        <v>1448</v>
+        <v>219</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>tomogram-002.h5</t>
+          <t>36859_H2_SP_11_rec_2Kb1dawbp_crop.h5</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -5759,20 +5759,20 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>train/val</t>
+          <t>test</t>
         </is>
       </c>
       <c r="E205" t="n">
-        <v>240</v>
+        <v>1155</v>
       </c>
       <c r="F205" t="n">
-        <v>161</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>tomogram-004.h5</t>
+          <t>36859_H3_SP_01_rec_2kb1dawbp_crop.h5</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -5785,20 +5785,20 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>train/val</t>
+          <t>test</t>
         </is>
       </c>
       <c r="E206" t="n">
-        <v>166</v>
+        <v>244</v>
       </c>
       <c r="F206" t="n">
-        <v>132</v>
+        <v>244</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>tomogram-006.h5</t>
+          <t>36859_H3_SP_05_rec_2kb1dawbp_crop.h5</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -5811,20 +5811,20 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>train/val</t>
+          <t>test</t>
         </is>
       </c>
       <c r="E207" t="n">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F207" t="n">
-        <v>278</v>
+        <v>320</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>tomogram-007.h5</t>
+          <t>36859_H3_SP_07_rec_2kb1dawbp_crop.h5</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -5837,20 +5837,20 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>train/val</t>
+          <t>test</t>
         </is>
       </c>
       <c r="E208" t="n">
-        <v>1296</v>
+        <v>530</v>
       </c>
       <c r="F208" t="n">
-        <v>1258</v>
+        <v>530</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>tomogram-008.h5</t>
+          <t>36859_H3_SP_08_rec_2kb1dawbp_crop.h5</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -5863,20 +5863,20 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>train/val</t>
+          <t>test</t>
         </is>
       </c>
       <c r="E209" t="n">
-        <v>546</v>
+        <v>113</v>
       </c>
       <c r="F209" t="n">
-        <v>498</v>
+        <v>113</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>tomogram-009.h5</t>
+          <t>36859_H3_SP_09_rec_2kb1dawbp_crop.h5</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -5889,20 +5889,20 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>train/val</t>
+          <t>test</t>
         </is>
       </c>
       <c r="E210" t="n">
-        <v>288</v>
+        <v>134</v>
       </c>
       <c r="F210" t="n">
-        <v>273</v>
+        <v>134</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>tomogram-010.h5</t>
+          <t>36859_H3_SP_10_rec_2kb1dawbp_crop.h5</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -5915,20 +5915,20 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>train/val</t>
+          <t>test</t>
         </is>
       </c>
       <c r="E211" t="n">
-        <v>527</v>
+        <v>199</v>
       </c>
       <c r="F211" t="n">
-        <v>444</v>
+        <v>199</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>tomogram-011.h5</t>
+          <t>36859_J1_STEM750_66K_SP_01_rec_2kb1dawbp_crop.h5</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -5941,289 +5941,289 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>train/val</t>
+          <t>test</t>
         </is>
       </c>
       <c r="E212" t="n">
-        <v>740</v>
+        <v>87</v>
       </c>
       <c r="F212" t="n">
-        <v>644</v>
+        <v>87</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>tomogram-000.h5</t>
+          <t>36859_J1_STEM750_66K_SP_02_rec_2kb1dawbp_crop.h5</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Dual-Axis TEM</t>
+          <t>STEM</t>
         </is>
       </c>
       <c r="C213" t="n">
-        <v>1.24</v>
+        <v>0.868</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>train/val</t>
+          <t>test</t>
         </is>
       </c>
       <c r="E213" t="n">
-        <v>385</v>
+        <v>470</v>
       </c>
       <c r="F213" t="n">
-        <v>141</v>
+        <v>470</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>tomogram-001.h5</t>
+          <t>36859_J1_STEM750_66K_SP_03_rec_2kb1dawbp_crop.h5</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Dual-Axis TEM</t>
+          <t>STEM</t>
         </is>
       </c>
       <c r="C214" t="n">
-        <v>1.24</v>
+        <v>0.868</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>train/val</t>
+          <t>test</t>
         </is>
       </c>
       <c r="E214" t="n">
-        <v>381</v>
+        <v>869</v>
       </c>
       <c r="F214" t="n">
-        <v>144</v>
+        <v>869</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>tomogram-002.h5</t>
+          <t>36859_J1_STEM750_66K_SP_06_rec_2kb1dawbp_crop.h5</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Dual-Axis TEM</t>
+          <t>STEM</t>
         </is>
       </c>
       <c r="C215" t="n">
-        <v>1.24</v>
+        <v>0.868</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>train/val</t>
+          <t>test</t>
         </is>
       </c>
       <c r="E215" t="n">
-        <v>439</v>
+        <v>224</v>
       </c>
       <c r="F215" t="n">
-        <v>168</v>
+        <v>224</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>tomogram-003.h5</t>
+          <t>36859_J1_STEM750_66K_SP_07_rec_2kb1dawbp_crop.h5</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Dual-Axis TEM</t>
+          <t>STEM</t>
         </is>
       </c>
       <c r="C216" t="n">
-        <v>1.24</v>
+        <v>0.868</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>train/val</t>
+          <t>test</t>
         </is>
       </c>
       <c r="E216" t="n">
-        <v>323</v>
+        <v>878</v>
       </c>
       <c r="F216" t="n">
-        <v>125</v>
+        <v>878</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>tomogram-004.h5</t>
+          <t>36859_J1_STEM750_66K_SP_08_rec_2kb1dawbp_crop.h5</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Dual-Axis TEM</t>
+          <t>STEM</t>
         </is>
       </c>
       <c r="C217" t="n">
-        <v>1.24</v>
+        <v>0.868</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>train/val</t>
+          <t>test</t>
         </is>
       </c>
       <c r="E217" t="n">
-        <v>372</v>
+        <v>1353</v>
       </c>
       <c r="F217" t="n">
-        <v>144</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>tomogram-005.h5</t>
+          <t>36859_J1_STEM750_66K_SP_10_rec_2kb1dawbp_crop.h5</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Dual-Axis TEM</t>
+          <t>STEM</t>
         </is>
       </c>
       <c r="C218" t="n">
-        <v>1.24</v>
+        <v>0.868</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>train/val</t>
+          <t>test</t>
         </is>
       </c>
       <c r="E218" t="n">
-        <v>145</v>
+        <v>201</v>
       </c>
       <c r="F218" t="n">
-        <v>43</v>
+        <v>201</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>tomogram-007.h5</t>
+          <t>36859_J1_STEM750_66K_SP_11_rec_2kb1dawbp_crop.h5</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Dual-Axis TEM</t>
+          <t>STEM</t>
         </is>
       </c>
       <c r="C219" t="n">
-        <v>1.24</v>
+        <v>0.868</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>train/val</t>
+          <t>test</t>
         </is>
       </c>
       <c r="E219" t="n">
-        <v>533</v>
+        <v>370</v>
       </c>
       <c r="F219" t="n">
-        <v>183</v>
+        <v>370</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>tomogram-008.h5</t>
+          <t>36859_J1_STEM750_66K_SP_13_rec_2kb1dawbp_crop.h5</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Dual-Axis TEM</t>
+          <t>STEM</t>
         </is>
       </c>
       <c r="C220" t="n">
-        <v>1.24</v>
+        <v>0.868</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>train/val</t>
+          <t>test</t>
         </is>
       </c>
       <c r="E220" t="n">
-        <v>384</v>
+        <v>482</v>
       </c>
       <c r="F220" t="n">
-        <v>137</v>
+        <v>482</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>tomogram-009.h5</t>
+          <t>36859_J1_STEM750_66K_SP_14_rec_2kb1dawbp_crop.h5</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Dual-Axis TEM</t>
+          <t>STEM</t>
         </is>
       </c>
       <c r="C221" t="n">
-        <v>1.24</v>
+        <v>0.868</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>train/val</t>
+          <t>test</t>
         </is>
       </c>
       <c r="E221" t="n">
-        <v>392</v>
+        <v>325</v>
       </c>
       <c r="F221" t="n">
-        <v>167</v>
+        <v>325</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>tomogram-010.h5</t>
+          <t>36859_J1_STEM750_66K_SP_17_rec_2kb1dawbp_crop.h5</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Dual-Axis TEM</t>
+          <t>STEM</t>
         </is>
       </c>
       <c r="C222" t="n">
-        <v>1.24</v>
+        <v>0.868</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>train/val</t>
+          <t>test</t>
         </is>
       </c>
       <c r="E222" t="n">
-        <v>273</v>
+        <v>505</v>
       </c>
       <c r="F222" t="n">
-        <v>93</v>
+        <v>505</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>tomogram-011.h5</t>
+          <t>tomogram-000.h5</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Dual-Axis TEM</t>
+          <t>STEM</t>
         </is>
       </c>
       <c r="C223" t="n">
-        <v>1.24</v>
+        <v>0.868</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -6231,25 +6231,25 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>417</v>
+        <v>486</v>
       </c>
       <c r="F223" t="n">
-        <v>178</v>
+        <v>443</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>tomogram-012.h5</t>
+          <t>tomogram-001.h5</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Dual-Axis TEM</t>
+          <t>STEM</t>
         </is>
       </c>
       <c r="C224" t="n">
-        <v>1.24</v>
+        <v>0.868</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -6257,25 +6257,25 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>392</v>
+        <v>2014</v>
       </c>
       <c r="F224" t="n">
-        <v>128</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>tomogram-013.h5</t>
+          <t>tomogram-002.h5</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Dual-Axis TEM</t>
+          <t>STEM</t>
         </is>
       </c>
       <c r="C225" t="n">
-        <v>1.24</v>
+        <v>0.868</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -6283,25 +6283,25 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>298</v>
+        <v>240</v>
       </c>
       <c r="F225" t="n">
-        <v>89</v>
+        <v>161</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>tomogram-014.h5</t>
+          <t>tomogram-004.h5</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Dual-Axis TEM</t>
+          <t>STEM</t>
         </is>
       </c>
       <c r="C226" t="n">
-        <v>1.24</v>
+        <v>0.868</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -6309,25 +6309,25 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>475</v>
+        <v>166</v>
       </c>
       <c r="F226" t="n">
-        <v>158</v>
+        <v>132</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>tomogram-015.h5</t>
+          <t>tomogram-006.h5</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Dual-Axis TEM</t>
+          <t>STEM</t>
         </is>
       </c>
       <c r="C227" t="n">
-        <v>1.24</v>
+        <v>0.868</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -6335,25 +6335,25 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>185</v>
+        <v>321</v>
       </c>
       <c r="F227" t="n">
-        <v>97</v>
+        <v>278</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>tomogram-016.h5</t>
+          <t>tomogram-007.h5</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Dual-Axis TEM</t>
+          <t>STEM</t>
         </is>
       </c>
       <c r="C228" t="n">
-        <v>1.24</v>
+        <v>0.868</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -6361,25 +6361,25 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>405</v>
+        <v>1296</v>
       </c>
       <c r="F228" t="n">
-        <v>116</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>tomogram-018.h5</t>
+          <t>tomogram-008.h5</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Dual-Axis TEM</t>
+          <t>STEM</t>
         </is>
       </c>
       <c r="C229" t="n">
-        <v>1.24</v>
+        <v>0.868</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -6387,25 +6387,25 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>369</v>
+        <v>546</v>
       </c>
       <c r="F229" t="n">
-        <v>111</v>
+        <v>498</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>tomogram-019.h5</t>
+          <t>tomogram-009.h5</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Dual-Axis TEM</t>
+          <t>STEM</t>
         </is>
       </c>
       <c r="C230" t="n">
-        <v>1.24</v>
+        <v>0.868</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -6413,16 +6413,16 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>173</v>
+        <v>288</v>
       </c>
       <c r="F230" t="n">
-        <v>79</v>
+        <v>273</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>tomogram-000.h5</t>
+          <t>tomogram-010.h5</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>1837</v>
+        <v>527</v>
       </c>
       <c r="F231" t="n">
-        <v>1578</v>
+        <v>444</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>tomogram-000.h5</t>
+          <t>tomogram-011.h5</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Dual-Axis TEM</t>
+          <t>STEM</t>
         </is>
       </c>
       <c r="C232" t="n">
-        <v>1.24</v>
+        <v>0.868</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -6465,10 +6465,10 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>384</v>
+        <v>740</v>
       </c>
       <c r="F232" t="n">
-        <v>144</v>
+        <v>644</v>
       </c>
     </row>
     <row r="233">
@@ -6479,54 +6479,54 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Dual-Axis TEM</t>
+          <t>STEM</t>
         </is>
       </c>
       <c r="C233" t="n">
-        <v>1.24</v>
+        <v>0.868</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>train/val</t>
+          <t>test</t>
         </is>
       </c>
       <c r="E233" t="n">
-        <v>384</v>
+        <v>266</v>
       </c>
       <c r="F233" t="n">
-        <v>137</v>
+        <v>244</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>tomogram-004.h5</t>
+          <t>tomogram-005.h5</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Dual-Axis TEM</t>
+          <t>STEM</t>
         </is>
       </c>
       <c r="C234" t="n">
-        <v>1.24</v>
+        <v>0.868</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>train/val</t>
+          <t>test</t>
         </is>
       </c>
       <c r="E234" t="n">
-        <v>272</v>
+        <v>396</v>
       </c>
       <c r="F234" t="n">
-        <v>91</v>
+        <v>371</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>tomogram-005.h5</t>
+          <t>tomogram-000.h5</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -6543,16 +6543,16 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>417</v>
+        <v>385</v>
       </c>
       <c r="F235" t="n">
-        <v>178</v>
+        <v>141</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>tomogram-006.h5</t>
+          <t>tomogram-001.h5</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -6569,16 +6569,16 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>344</v>
+        <v>381</v>
       </c>
       <c r="F236" t="n">
-        <v>114</v>
+        <v>144</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>tomogram-008.h5</t>
+          <t>tomogram-002.h5</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>289</v>
+        <v>439</v>
       </c>
       <c r="F237" t="n">
-        <v>97</v>
+        <v>168</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>tomogram-009.h5</t>
+          <t>tomogram-003.h5</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -6621,16 +6621,16 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>369</v>
+        <v>323</v>
       </c>
       <c r="F238" t="n">
-        <v>111</v>
+        <v>125</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>tomogram-010.h5</t>
+          <t>tomogram-004.h5</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -6647,16 +6647,16 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>173</v>
+        <v>372</v>
       </c>
       <c r="F239" t="n">
-        <v>79</v>
+        <v>144</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>tomogram-011.h5</t>
+          <t>tomogram-005.h5</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -6673,16 +6673,16 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>65</v>
+        <v>145</v>
       </c>
       <c r="F240" t="n">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>tomogram-012.h5</t>
+          <t>tomogram-007.h5</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -6699,16 +6699,16 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>132</v>
+        <v>533</v>
       </c>
       <c r="F241" t="n">
-        <v>27</v>
+        <v>183</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>tomogram-013.h5</t>
+          <t>tomogram-008.h5</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -6725,16 +6725,16 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>111</v>
+        <v>384</v>
       </c>
       <c r="F242" t="n">
-        <v>28</v>
+        <v>137</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>tomogram-014.h5</t>
+          <t>tomogram-009.h5</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -6751,16 +6751,16 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>195</v>
+        <v>392</v>
       </c>
       <c r="F243" t="n">
-        <v>49</v>
+        <v>167</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>tomogram-015.h5</t>
+          <t>tomogram-010.h5</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -6777,16 +6777,16 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>174</v>
+        <v>273</v>
       </c>
       <c r="F244" t="n">
-        <v>28</v>
+        <v>93</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>tomogram-016.h5</t>
+          <t>tomogram-011.h5</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -6803,16 +6803,16 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>144</v>
+        <v>417</v>
       </c>
       <c r="F245" t="n">
-        <v>49</v>
+        <v>178</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>tomogram-017.h5</t>
+          <t>tomogram-012.h5</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -6829,16 +6829,16 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>75</v>
+        <v>392</v>
       </c>
       <c r="F246" t="n">
-        <v>42</v>
+        <v>128</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>tomogram-018.h5</t>
+          <t>tomogram-013.h5</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -6855,16 +6855,16 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>148</v>
+        <v>298</v>
       </c>
       <c r="F247" t="n">
-        <v>56</v>
+        <v>89</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>tomogram-019.h5</t>
+          <t>tomogram-014.h5</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -6881,16 +6881,16 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>253</v>
+        <v>475</v>
       </c>
       <c r="F248" t="n">
-        <v>65</v>
+        <v>158</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>tomogram-020.h5</t>
+          <t>tomogram-015.h5</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -6907,16 +6907,16 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>143</v>
+        <v>185</v>
       </c>
       <c r="F249" t="n">
-        <v>39</v>
+        <v>97</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>tomogram-021.h5</t>
+          <t>tomogram-016.h5</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -6933,16 +6933,16 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>55</v>
+        <v>405</v>
       </c>
       <c r="F250" t="n">
-        <v>23</v>
+        <v>116</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>tomogram-022.h5</t>
+          <t>tomogram-018.h5</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -6959,16 +6959,16 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>170</v>
+        <v>369</v>
       </c>
       <c r="F251" t="n">
-        <v>48</v>
+        <v>111</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>tomogram-023.h5</t>
+          <t>tomogram-019.h5</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -6985,16 +6985,16 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>202</v>
+        <v>173</v>
       </c>
       <c r="F252" t="n">
-        <v>59</v>
+        <v>79</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>tomogram-024.h5</t>
+          <t>tomogram-006.h5</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -7007,20 +7007,20 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>train/val</t>
+          <t>test</t>
         </is>
       </c>
       <c r="E253" t="n">
-        <v>42</v>
+        <v>447</v>
       </c>
       <c r="F253" t="n">
-        <v>16</v>
+        <v>173</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>tomogram-025.h5</t>
+          <t>tomogram-017.h5</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -7033,29 +7033,29 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>train/val</t>
+          <t>test</t>
         </is>
       </c>
       <c r="E254" t="n">
-        <v>105</v>
+        <v>356</v>
       </c>
       <c r="F254" t="n">
-        <v>27</v>
+        <v>92</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>tomogram-026.h5</t>
+          <t>tomogram-000.h5</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Dual-Axis TEM</t>
+          <t>STEM</t>
         </is>
       </c>
       <c r="C255" t="n">
-        <v>1.24</v>
+        <v>0.868</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -7063,10 +7063,10 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>55</v>
+        <v>1837</v>
       </c>
       <c r="F255" t="n">
-        <v>19</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="256">
@@ -7089,16 +7089,16 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>529</v>
+        <v>384</v>
       </c>
       <c r="F256" t="n">
-        <v>207</v>
+        <v>144</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>tomogram-002.h5</t>
+          <t>tomogram-003.h5</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -7115,16 +7115,16 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>1530</v>
+        <v>384</v>
       </c>
       <c r="F257" t="n">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>tomogram-003.h5</t>
+          <t>tomogram-004.h5</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -7141,16 +7141,16 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>679</v>
+        <v>272</v>
       </c>
       <c r="F258" t="n">
-        <v>186</v>
+        <v>91</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>tomogram-004.h5</t>
+          <t>tomogram-005.h5</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -7167,16 +7167,16 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>227</v>
+        <v>417</v>
       </c>
       <c r="F259" t="n">
-        <v>70</v>
+        <v>178</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>tomogram-005.h5</t>
+          <t>tomogram-006.h5</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -7193,16 +7193,16 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>654</v>
+        <v>344</v>
       </c>
       <c r="F260" t="n">
-        <v>205</v>
+        <v>114</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>tomogram-006.h5</t>
+          <t>tomogram-008.h5</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -7219,10 +7219,10 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>1234</v>
+        <v>289</v>
       </c>
       <c r="F261" t="n">
-        <v>270</v>
+        <v>97</v>
       </c>
     </row>
     <row r="262">
@@ -7245,10 +7245,10 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>339</v>
+        <v>369</v>
       </c>
       <c r="F262" t="n">
-        <v>157</v>
+        <v>111</v>
       </c>
     </row>
     <row r="263">
@@ -7271,10 +7271,10 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>858</v>
+        <v>173</v>
       </c>
       <c r="F263" t="n">
-        <v>155</v>
+        <v>79</v>
       </c>
     </row>
     <row r="264">
@@ -7297,10 +7297,10 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>698</v>
+        <v>65</v>
       </c>
       <c r="F264" t="n">
-        <v>125</v>
+        <v>19</v>
       </c>
     </row>
     <row r="265">
@@ -7323,10 +7323,10 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>419</v>
+        <v>132</v>
       </c>
       <c r="F265" t="n">
-        <v>147</v>
+        <v>27</v>
       </c>
     </row>
     <row r="266">
@@ -7349,10 +7349,10 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>243</v>
+        <v>111</v>
       </c>
       <c r="F266" t="n">
-        <v>66</v>
+        <v>28</v>
       </c>
     </row>
     <row r="267">
@@ -7375,10 +7375,10 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="F267" t="n">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="268">
@@ -7401,10 +7401,10 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>92</v>
+        <v>174</v>
       </c>
       <c r="F268" t="n">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="269">
@@ -7427,10 +7427,10 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>247</v>
+        <v>144</v>
       </c>
       <c r="F269" t="n">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="270">
@@ -7453,10 +7453,10 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>214</v>
+        <v>75</v>
       </c>
       <c r="F270" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="271">
@@ -7479,10 +7479,10 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>382</v>
+        <v>148</v>
       </c>
       <c r="F271" t="n">
-        <v>104</v>
+        <v>56</v>
       </c>
     </row>
     <row r="272">
@@ -7505,10 +7505,10 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>399</v>
+        <v>253</v>
       </c>
       <c r="F272" t="n">
-        <v>112</v>
+        <v>65</v>
       </c>
     </row>
     <row r="273">
@@ -7531,10 +7531,10 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>315</v>
+        <v>143</v>
       </c>
       <c r="F273" t="n">
-        <v>61</v>
+        <v>39</v>
       </c>
     </row>
     <row r="274">
@@ -7557,10 +7557,10 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>482</v>
+        <v>55</v>
       </c>
       <c r="F274" t="n">
-        <v>47</v>
+        <v>23</v>
       </c>
     </row>
     <row r="275">
@@ -7583,10 +7583,10 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>995</v>
+        <v>170</v>
       </c>
       <c r="F275" t="n">
-        <v>107</v>
+        <v>48</v>
       </c>
     </row>
     <row r="276">
@@ -7609,10 +7609,10 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>534</v>
+        <v>202</v>
       </c>
       <c r="F276" t="n">
-        <v>109</v>
+        <v>59</v>
       </c>
     </row>
     <row r="277">
@@ -7635,10 +7635,10 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>250</v>
+        <v>42</v>
       </c>
       <c r="F277" t="n">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="278">
@@ -7661,10 +7661,10 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>324</v>
+        <v>105</v>
       </c>
       <c r="F278" t="n">
-        <v>63</v>
+        <v>27</v>
       </c>
     </row>
     <row r="279">
@@ -7687,16 +7687,16 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>883</v>
+        <v>55</v>
       </c>
       <c r="F279" t="n">
-        <v>118</v>
+        <v>19</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>tomogram-027.h5</t>
+          <t>tomogram-001.h5</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -7709,20 +7709,20 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>train/val</t>
+          <t>test</t>
         </is>
       </c>
       <c r="E280" t="n">
-        <v>858</v>
+        <v>447</v>
       </c>
       <c r="F280" t="n">
-        <v>68</v>
+        <v>173</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>tomogram-028.h5</t>
+          <t>tomogram-002.h5</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -7735,20 +7735,20 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>train/val</t>
+          <t>test</t>
         </is>
       </c>
       <c r="E281" t="n">
-        <v>325</v>
+        <v>533</v>
       </c>
       <c r="F281" t="n">
-        <v>51</v>
+        <v>182</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>tomogram-029.h5</t>
+          <t>tomogram-007.h5</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -7761,20 +7761,20 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>train/val</t>
+          <t>test</t>
         </is>
       </c>
       <c r="E282" t="n">
-        <v>952</v>
+        <v>475</v>
       </c>
       <c r="F282" t="n">
-        <v>62</v>
+        <v>158</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>tomogram-030.h5</t>
+          <t>tomogram-000.h5</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -7791,16 +7791,16 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>993</v>
+        <v>529</v>
       </c>
       <c r="F283" t="n">
-        <v>74</v>
+        <v>207</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>tomogram-031.h5</t>
+          <t>tomogram-002.h5</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -7817,16 +7817,16 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>495</v>
+        <v>1530</v>
       </c>
       <c r="F284" t="n">
-        <v>85</v>
+        <v>148</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>tomogram-032.h5</t>
+          <t>tomogram-003.h5</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -7843,25 +7843,25 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>181</v>
+        <v>679</v>
       </c>
       <c r="F285" t="n">
-        <v>80</v>
+        <v>186</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>tomogram-002.h5</t>
+          <t>tomogram-004.h5</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Chemical Fixation</t>
+          <t>Dual-Axis TEM</t>
         </is>
       </c>
       <c r="C286" t="n">
-        <v>1.554</v>
+        <v>1.24</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -7869,10 +7869,10 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>153</v>
+        <v>227</v>
       </c>
       <c r="F286" t="n">
-        <v>125</v>
+        <v>70</v>
       </c>
     </row>
     <row r="287">
@@ -7883,11 +7883,11 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Chemical Fixation</t>
+          <t>Dual-Axis TEM</t>
         </is>
       </c>
       <c r="C287" t="n">
-        <v>1.554</v>
+        <v>1.24</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -7895,10 +7895,10 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>98</v>
+        <v>654</v>
       </c>
       <c r="F287" t="n">
-        <v>70</v>
+        <v>205</v>
       </c>
     </row>
     <row r="288">
@@ -7909,11 +7909,11 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Chemical Fixation</t>
+          <t>Dual-Axis TEM</t>
         </is>
       </c>
       <c r="C288" t="n">
-        <v>1.554</v>
+        <v>1.24</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -7921,25 +7921,25 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>30</v>
+        <v>1234</v>
       </c>
       <c r="F288" t="n">
-        <v>22</v>
+        <v>270</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>tomogram-007.h5</t>
+          <t>tomogram-009.h5</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Chemical Fixation</t>
+          <t>Dual-Axis TEM</t>
         </is>
       </c>
       <c r="C289" t="n">
-        <v>1.554</v>
+        <v>1.24</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -7947,25 +7947,25 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>21</v>
+        <v>339</v>
       </c>
       <c r="F289" t="n">
-        <v>18</v>
+        <v>157</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>tomogram-008.h5</t>
+          <t>tomogram-010.h5</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Chemical Fixation</t>
+          <t>Dual-Axis TEM</t>
         </is>
       </c>
       <c r="C290" t="n">
-        <v>1.554</v>
+        <v>1.24</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -7973,10 +7973,10 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>115</v>
+        <v>858</v>
       </c>
       <c r="F290" t="n">
-        <v>105</v>
+        <v>155</v>
       </c>
     </row>
     <row r="291">
@@ -7987,11 +7987,11 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Chemical Fixation</t>
+          <t>Dual-Axis TEM</t>
         </is>
       </c>
       <c r="C291" t="n">
-        <v>1.554</v>
+        <v>1.24</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -7999,25 +7999,25 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>171</v>
+        <v>698</v>
       </c>
       <c r="F291" t="n">
-        <v>143</v>
+        <v>125</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>tomogram-016.h5</t>
+          <t>tomogram-012.h5</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Chemical Fixation</t>
+          <t>Dual-Axis TEM</t>
         </is>
       </c>
       <c r="C292" t="n">
-        <v>1.554</v>
+        <v>1.24</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -8025,25 +8025,25 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>99</v>
+        <v>419</v>
       </c>
       <c r="F292" t="n">
-        <v>79</v>
+        <v>147</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>tomogram-019.h5</t>
+          <t>tomogram-013.h5</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Chemical Fixation</t>
+          <t>Dual-Axis TEM</t>
         </is>
       </c>
       <c r="C293" t="n">
-        <v>1.554</v>
+        <v>1.24</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -8051,25 +8051,25 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>142</v>
+        <v>243</v>
       </c>
       <c r="F293" t="n">
-        <v>124</v>
+        <v>66</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>tomogram-020.h5</t>
+          <t>tomogram-014.h5</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Chemical Fixation</t>
+          <t>Dual-Axis TEM</t>
         </is>
       </c>
       <c r="C294" t="n">
-        <v>1.554</v>
+        <v>1.24</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -8077,25 +8077,25 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>127</v>
+        <v>221</v>
       </c>
       <c r="F294" t="n">
-        <v>105</v>
+        <v>59</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>tomogram-023.h5</t>
+          <t>tomogram-015.h5</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Chemical Fixation</t>
+          <t>Dual-Axis TEM</t>
         </is>
       </c>
       <c r="C295" t="n">
-        <v>1.554</v>
+        <v>1.24</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -8103,25 +8103,25 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="F295" t="n">
-        <v>105</v>
+        <v>37</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>tomogram-024.h5</t>
+          <t>tomogram-016.h5</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Chemical Fixation</t>
+          <t>Dual-Axis TEM</t>
         </is>
       </c>
       <c r="C296" t="n">
-        <v>1.554</v>
+        <v>1.24</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -8129,25 +8129,25 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>188</v>
+        <v>247</v>
       </c>
       <c r="F296" t="n">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>tomogram-025.h5</t>
+          <t>tomogram-017.h5</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Chemical Fixation</t>
+          <t>Dual-Axis TEM</t>
         </is>
       </c>
       <c r="C297" t="n">
-        <v>1.554</v>
+        <v>1.24</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -8155,25 +8155,25 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>91</v>
+        <v>214</v>
       </c>
       <c r="F297" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>tomogram-026.h5</t>
+          <t>tomogram-018.h5</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Chemical Fixation</t>
+          <t>Dual-Axis TEM</t>
         </is>
       </c>
       <c r="C298" t="n">
-        <v>1.554</v>
+        <v>1.24</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -8181,25 +8181,25 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>65</v>
+        <v>382</v>
       </c>
       <c r="F298" t="n">
-        <v>42</v>
+        <v>104</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>tomogram-027.h5</t>
+          <t>tomogram-019.h5</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Chemical Fixation</t>
+          <t>Dual-Axis TEM</t>
         </is>
       </c>
       <c r="C299" t="n">
-        <v>1.554</v>
+        <v>1.24</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -8207,25 +8207,25 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>130</v>
+        <v>399</v>
       </c>
       <c r="F299" t="n">
-        <v>59</v>
+        <v>112</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>tomogram-028.h5</t>
+          <t>tomogram-020.h5</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Chemical Fixation</t>
+          <t>Dual-Axis TEM</t>
         </is>
       </c>
       <c r="C300" t="n">
-        <v>1.554</v>
+        <v>1.24</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -8233,25 +8233,25 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>70</v>
+        <v>315</v>
       </c>
       <c r="F300" t="n">
-        <v>43</v>
+        <v>61</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>tomogram-029.h5</t>
+          <t>tomogram-021.h5</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Chemical Fixation</t>
+          <t>Dual-Axis TEM</t>
         </is>
       </c>
       <c r="C301" t="n">
-        <v>1.554</v>
+        <v>1.24</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -8259,25 +8259,25 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>97</v>
+        <v>482</v>
       </c>
       <c r="F301" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>tomogram-030.h5</t>
+          <t>tomogram-022.h5</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Chemical Fixation</t>
+          <t>Dual-Axis TEM</t>
         </is>
       </c>
       <c r="C302" t="n">
-        <v>1.554</v>
+        <v>1.24</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -8285,25 +8285,25 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>105</v>
+        <v>995</v>
       </c>
       <c r="F302" t="n">
-        <v>58</v>
+        <v>107</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>tomogram-031.h5</t>
+          <t>tomogram-023.h5</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Chemical Fixation</t>
+          <t>Dual-Axis TEM</t>
         </is>
       </c>
       <c r="C303" t="n">
-        <v>1.554</v>
+        <v>1.24</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -8311,25 +8311,25 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>99</v>
+        <v>534</v>
       </c>
       <c r="F303" t="n">
-        <v>47</v>
+        <v>109</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>tomogram-032.h5</t>
+          <t>tomogram-024.h5</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Chemical Fixation</t>
+          <t>Dual-Axis TEM</t>
         </is>
       </c>
       <c r="C304" t="n">
-        <v>1.554</v>
+        <v>1.24</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -8337,36 +8337,894 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>115</v>
+        <v>250</v>
       </c>
       <c r="F304" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
+          <t>tomogram-025.h5</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Dual-Axis TEM</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>train/val</t>
+        </is>
+      </c>
+      <c r="E305" t="n">
+        <v>324</v>
+      </c>
+      <c r="F305" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>tomogram-026.h5</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>Dual-Axis TEM</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>train/val</t>
+        </is>
+      </c>
+      <c r="E306" t="n">
+        <v>883</v>
+      </c>
+      <c r="F306" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>tomogram-027.h5</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Dual-Axis TEM</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>train/val</t>
+        </is>
+      </c>
+      <c r="E307" t="n">
+        <v>858</v>
+      </c>
+      <c r="F307" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>tomogram-028.h5</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Dual-Axis TEM</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>train/val</t>
+        </is>
+      </c>
+      <c r="E308" t="n">
+        <v>325</v>
+      </c>
+      <c r="F308" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>tomogram-029.h5</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Dual-Axis TEM</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>train/val</t>
+        </is>
+      </c>
+      <c r="E309" t="n">
+        <v>952</v>
+      </c>
+      <c r="F309" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>tomogram-030.h5</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>Dual-Axis TEM</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>train/val</t>
+        </is>
+      </c>
+      <c r="E310" t="n">
+        <v>993</v>
+      </c>
+      <c r="F310" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>tomogram-031.h5</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Dual-Axis TEM</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>train/val</t>
+        </is>
+      </c>
+      <c r="E311" t="n">
+        <v>495</v>
+      </c>
+      <c r="F311" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>tomogram-032.h5</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>Dual-Axis TEM</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>train/val</t>
+        </is>
+      </c>
+      <c r="E312" t="n">
+        <v>181</v>
+      </c>
+      <c r="F312" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>tomogram-001.h5</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>Dual-Axis TEM</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="E313" t="n">
+        <v>1821</v>
+      </c>
+      <c r="F313" t="n">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>tomogram-007.h5</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Dual-Axis TEM</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="E314" t="n">
+        <v>534</v>
+      </c>
+      <c r="F314" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>tomogram-008.h5</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Dual-Axis TEM</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="E315" t="n">
+        <v>504</v>
+      </c>
+      <c r="F315" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>tomogram-002.h5</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Chemical Fixation</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>1.554</v>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>train/val</t>
+        </is>
+      </c>
+      <c r="E316" t="n">
+        <v>153</v>
+      </c>
+      <c r="F316" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>tomogram-005.h5</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Chemical Fixation</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>1.554</v>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>train/val</t>
+        </is>
+      </c>
+      <c r="E317" t="n">
+        <v>98</v>
+      </c>
+      <c r="F317" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>tomogram-006.h5</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>Chemical Fixation</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>1.554</v>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>train/val</t>
+        </is>
+      </c>
+      <c r="E318" t="n">
+        <v>30</v>
+      </c>
+      <c r="F318" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>tomogram-007.h5</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>Chemical Fixation</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>1.554</v>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>train/val</t>
+        </is>
+      </c>
+      <c r="E319" t="n">
+        <v>21</v>
+      </c>
+      <c r="F319" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>tomogram-008.h5</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>Chemical Fixation</t>
+        </is>
+      </c>
+      <c r="C320" t="n">
+        <v>1.554</v>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>train/val</t>
+        </is>
+      </c>
+      <c r="E320" t="n">
+        <v>115</v>
+      </c>
+      <c r="F320" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>tomogram-011.h5</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>Chemical Fixation</t>
+        </is>
+      </c>
+      <c r="C321" t="n">
+        <v>1.554</v>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>train/val</t>
+        </is>
+      </c>
+      <c r="E321" t="n">
+        <v>171</v>
+      </c>
+      <c r="F321" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>tomogram-016.h5</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>Chemical Fixation</t>
+        </is>
+      </c>
+      <c r="C322" t="n">
+        <v>1.554</v>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>train/val</t>
+        </is>
+      </c>
+      <c r="E322" t="n">
+        <v>99</v>
+      </c>
+      <c r="F322" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>tomogram-019.h5</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>Chemical Fixation</t>
+        </is>
+      </c>
+      <c r="C323" t="n">
+        <v>1.554</v>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>train/val</t>
+        </is>
+      </c>
+      <c r="E323" t="n">
+        <v>142</v>
+      </c>
+      <c r="F323" t="n">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>tomogram-020.h5</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>Chemical Fixation</t>
+        </is>
+      </c>
+      <c r="C324" t="n">
+        <v>1.554</v>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>train/val</t>
+        </is>
+      </c>
+      <c r="E324" t="n">
+        <v>127</v>
+      </c>
+      <c r="F324" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>tomogram-023.h5</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>Chemical Fixation</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>1.554</v>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>train/val</t>
+        </is>
+      </c>
+      <c r="E325" t="n">
+        <v>136</v>
+      </c>
+      <c r="F325" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>tomogram-024.h5</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>Chemical Fixation</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>1.554</v>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>train/val</t>
+        </is>
+      </c>
+      <c r="E326" t="n">
+        <v>188</v>
+      </c>
+      <c r="F326" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>tomogram-025.h5</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>Chemical Fixation</t>
+        </is>
+      </c>
+      <c r="C327" t="n">
+        <v>1.554</v>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>train/val</t>
+        </is>
+      </c>
+      <c r="E327" t="n">
+        <v>91</v>
+      </c>
+      <c r="F327" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>tomogram-026.h5</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>Chemical Fixation</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>1.554</v>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>train/val</t>
+        </is>
+      </c>
+      <c r="E328" t="n">
+        <v>65</v>
+      </c>
+      <c r="F328" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>tomogram-027.h5</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>Chemical Fixation</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>1.554</v>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>train/val</t>
+        </is>
+      </c>
+      <c r="E329" t="n">
+        <v>130</v>
+      </c>
+      <c r="F329" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>tomogram-028.h5</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>Chemical Fixation</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>1.554</v>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>train/val</t>
+        </is>
+      </c>
+      <c r="E330" t="n">
+        <v>70</v>
+      </c>
+      <c r="F330" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>tomogram-029.h5</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>Chemical Fixation</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>1.554</v>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>train/val</t>
+        </is>
+      </c>
+      <c r="E331" t="n">
+        <v>97</v>
+      </c>
+      <c r="F331" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>tomogram-030.h5</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>Chemical Fixation</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>1.554</v>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>train/val</t>
+        </is>
+      </c>
+      <c r="E332" t="n">
+        <v>105</v>
+      </c>
+      <c r="F332" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>tomogram-031.h5</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>Chemical Fixation</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>1.554</v>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>train/val</t>
+        </is>
+      </c>
+      <c r="E333" t="n">
+        <v>99</v>
+      </c>
+      <c r="F333" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>tomogram-032.h5</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>Chemical Fixation</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>1.554</v>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>train/val</t>
+        </is>
+      </c>
+      <c r="E334" t="n">
+        <v>115</v>
+      </c>
+      <c r="F334" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
           <t>tomogram-033.h5</t>
         </is>
       </c>
-      <c r="B305" t="inlineStr">
+      <c r="B335" t="inlineStr">
         <is>
           <t>Chemical Fixation</t>
         </is>
       </c>
-      <c r="C305" t="n">
-        <v>1.554</v>
-      </c>
-      <c r="D305" t="inlineStr">
-        <is>
-          <t>train/val</t>
-        </is>
-      </c>
-      <c r="E305" t="n">
+      <c r="C335" t="n">
+        <v>1.554</v>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>train/val</t>
+        </is>
+      </c>
+      <c r="E335" t="n">
         <v>95</v>
       </c>
-      <c r="F305" t="n">
+      <c r="F335" t="n">
         <v>33</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>tomogram-004.h5</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>Chemical Fixation</t>
+        </is>
+      </c>
+      <c r="C336" t="n">
+        <v>1.554</v>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="E336" t="n">
+        <v>238</v>
+      </c>
+      <c r="F336" t="n">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>tomogram-021.h5</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>Chemical Fixation</t>
+        </is>
+      </c>
+      <c r="C337" t="n">
+        <v>1.554</v>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="E337" t="n">
+        <v>245</v>
+      </c>
+      <c r="F337" t="n">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>tomogram-022.h5</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>Chemical Fixation</t>
+        </is>
+      </c>
+      <c r="C338" t="n">
+        <v>1.554</v>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="E338" t="n">
+        <v>134</v>
+      </c>
+      <c r="F338" t="n">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
